--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7407EF98-E11B-9043-BF0B-0B2144EC3005}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293B5204-B028-244A-A79D-89FE666F80D3}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="580" windowWidth="26740" windowHeight="16380" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>日期</t>
   </si>
@@ -90,6 +90,27 @@
   </si>
   <si>
     <t>吃饭</t>
+  </si>
+  <si>
+    <t>Perters' book</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>来回球馆</t>
+  </si>
+  <si>
+    <t>洗澡</t>
+  </si>
+  <si>
+    <t>羽毛球</t>
+  </si>
+  <si>
+    <t>frescati</t>
+  </si>
+  <si>
+    <t>李宇轩视频</t>
   </si>
 </sst>
 </file>
@@ -451,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -509,13 +530,13 @@
         <v>44946</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -523,13 +544,13 @@
         <v>44946</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -537,13 +558,13 @@
         <v>44946</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -551,13 +572,13 @@
         <v>44946</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,13 +586,13 @@
         <v>44946</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -579,13 +600,10 @@
         <v>44946</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -593,19 +611,70 @@
         <v>44946</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44946</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>44946</v>
       </c>
     </row>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293B5204-B028-244A-A79D-89FE666F80D3}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F6DA818-299F-FA45-81B1-221693AB4FFA}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="580" windowWidth="26740" windowHeight="16380" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -111,6 +111,45 @@
   </si>
   <si>
     <t>李宇轩视频</t>
+  </si>
+  <si>
+    <t>研究杀球</t>
+  </si>
+  <si>
+    <t>早餐</t>
+  </si>
+  <si>
+    <t>新异化的诞生 1.5章节</t>
+  </si>
+  <si>
+    <t>步伐会拍训练</t>
+  </si>
+  <si>
+    <t>午饭</t>
+  </si>
+  <si>
+    <t>出行</t>
+  </si>
+  <si>
+    <t>买菜</t>
+  </si>
+  <si>
+    <t>lidl</t>
+  </si>
+  <si>
+    <t>杂事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">做饭 </t>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo: swish, 热菜不粘锅 </t>
+  </si>
+  <si>
+    <t>当尼采哭泣 1-8章</t>
   </si>
 </sst>
 </file>
@@ -472,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,9 +712,203 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>44946</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44948</v>
       </c>
     </row>
   </sheetData>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F6DA818-299F-FA45-81B1-221693AB4FFA}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31593102-1B1A-644B-B619-A1D5290E7E3C}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="580" windowWidth="26740" windowHeight="16380" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
+    <workbookView xWindow="0" yWindow="1580" windowWidth="27040" windowHeight="15980" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>日期</t>
   </si>
@@ -146,10 +146,16 @@
     <t>睡觉</t>
   </si>
   <si>
-    <t xml:space="preserve">todo: swish, 热菜不粘锅 </t>
-  </si>
-  <si>
     <t>当尼采哭泣 1-8章</t>
+  </si>
+  <si>
+    <t>为什么睡觉</t>
+  </si>
+  <si>
+    <t>todo: swish</t>
+  </si>
+  <si>
+    <t>起床</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,7 +796,7 @@
         <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -865,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2">
         <v>182</v>
@@ -900,15 +906,75 @@
       <c r="A31" s="1">
         <v>44948</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>44948</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44948</v>
+        <v>44949</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44949</v>
       </c>
     </row>
   </sheetData>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31593102-1B1A-644B-B619-A1D5290E7E3C}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11E6A60-CC7F-C74E-B170-04001524B211}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1580" windowWidth="27040" windowHeight="15980" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="27040" windowHeight="15540" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>日期</t>
   </si>
@@ -156,6 +156,30 @@
   </si>
   <si>
     <t>起床</t>
+  </si>
+  <si>
+    <t>UK签证</t>
+  </si>
+  <si>
+    <t>签证</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>外公</t>
+  </si>
+  <si>
+    <t>课程</t>
+  </si>
+  <si>
+    <t>teaching</t>
+  </si>
+  <si>
+    <t>查伯明翰住宿</t>
+  </si>
+  <si>
+    <t>午睡</t>
   </si>
 </sst>
 </file>
@@ -517,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,24 +980,108 @@
       <c r="A36" s="1">
         <v>44949</v>
       </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44949</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44949</v>
       </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44949</v>
       </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>44949</v>
       </c>
     </row>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11E6A60-CC7F-C74E-B170-04001524B211}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2918C1-C0D9-3040-8F7C-71C46EBB9603}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="27040" windowHeight="15540" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>日期</t>
   </si>
@@ -180,6 +180,45 @@
   </si>
   <si>
     <t>午睡</t>
+  </si>
+  <si>
+    <t>当尼采哭泣 9-10 章</t>
+  </si>
+  <si>
+    <t>保龄球</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>causality</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>当尼采哭泣</t>
+  </si>
+  <si>
+    <t>拉伸</t>
+  </si>
+  <si>
+    <t>午休</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t>洗漱</t>
+  </si>
+  <si>
+    <t>研究视频</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>检查条款</t>
   </si>
 </sst>
 </file>
@@ -541,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,7 +1012,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1069,20 +1108,212 @@
       <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44949</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44949</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44949</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44951</v>
       </c>
     </row>
   </sheetData>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2918C1-C0D9-3040-8F7C-71C46EBB9603}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B8949FD-6FA0-4E4A-95C0-4EBB787E1E9B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="27040" windowHeight="15540" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>日期</t>
   </si>
@@ -219,6 +219,21 @@
   </si>
   <si>
     <t>检查条款</t>
+  </si>
+  <si>
+    <t>you and your research</t>
+  </si>
+  <si>
+    <t>羽毛球训练</t>
+  </si>
+  <si>
+    <t>训练</t>
+  </si>
+  <si>
+    <t>b站</t>
+  </si>
+  <si>
+    <t>邻人之妻，福柯</t>
   </si>
 </sst>
 </file>
@@ -580,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1305,15 +1320,92 @@
       <c r="A61" s="1">
         <v>44951</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44951</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44951</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="2">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B8949FD-6FA0-4E4A-95C0-4EBB787E1E9B}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A768EDCB-211A-F04C-A34B-15797C0F79C4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="27040" windowHeight="15540" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="19200" windowHeight="16980" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>日期</t>
   </si>
@@ -234,16 +234,111 @@
   </si>
   <si>
     <t>邻人之妻，福柯</t>
+  </si>
+  <si>
+    <t>视频分析</t>
+  </si>
+  <si>
+    <t>causal inference</t>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉伸</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>美学</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿快递</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>煮饭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗头</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽毛球</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>午休</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>思念</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+  </si>
+  <si>
+    <t>做菜</t>
+  </si>
+  <si>
+    <t>检查单板</t>
+  </si>
+  <si>
+    <t>拿电脑</t>
+  </si>
+  <si>
+    <t>单板</t>
+  </si>
+  <si>
+    <t>滑雪</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,12 +364,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -595,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,7 +1467,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44951</v>
       </c>
@@ -1380,7 +1481,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44951</v>
       </c>
@@ -1394,7 +1495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44951</v>
       </c>
@@ -1405,7 +1506,345 @@
         <v>65</v>
       </c>
       <c r="D67" s="2">
-        <v>124</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="2">
+        <v>195</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="2">
+        <v>10</v>
+      </c>
+      <c r="E78" s="2">
+        <f>SUM(D79:D100)</f>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>44953</v>
       </c>
     </row>
   </sheetData>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A768EDCB-211A-F04C-A34B-15797C0F79C4}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48E4FC2-AA28-324B-83EF-78F90F89F06F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="19200" windowHeight="16980" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
+    <workbookView xWindow="12760" yWindow="2260" windowWidth="19200" windowHeight="16980" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>日期</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>滑雪</t>
+  </si>
+  <si>
+    <t>teaching course</t>
+  </si>
+  <si>
+    <t>记录</t>
+  </si>
+  <si>
+    <t>银行卡链接手机</t>
   </si>
 </sst>
 </file>
@@ -696,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1838,13 +1847,104 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <v>44953</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <v>44953</v>
+      <c r="A100" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>44957</v>
       </c>
     </row>
   </sheetData>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48E4FC2-AA28-324B-83EF-78F90F89F06F}"/>
+  <xr:revisionPtr revIDLastSave="639" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F753565D-00E7-2442-B3EA-B04B35BD06EB}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="2260" windowWidth="19200" windowHeight="16980" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23360" windowHeight="16000" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <t>日期</t>
   </si>
@@ -331,6 +331,66 @@
   </si>
   <si>
     <t>银行卡链接手机</t>
+  </si>
+  <si>
+    <t>洗漱 洗澡</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>kth portal</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>causal inference in TS</t>
+  </si>
+  <si>
+    <t>2 chanel calibration</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adel</t>
+  </si>
+  <si>
+    <t>取快递</t>
+  </si>
+  <si>
+    <t>李宁</t>
+  </si>
+  <si>
+    <t>拆快递，试穿</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>qq空间</t>
+  </si>
+  <si>
+    <t>知乎</t>
+  </si>
+  <si>
+    <t>何毓琦</t>
+  </si>
+  <si>
+    <t>kalman filter</t>
+  </si>
+  <si>
+    <t>allan</t>
+  </si>
+  <si>
+    <t>python fft</t>
   </si>
 </sst>
 </file>
@@ -705,16 +765,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -1933,18 +1993,455 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
-        <v>44957</v>
-      </c>
+      <c r="A109" s="4"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>44957</v>
+        <v>44958</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>44957</v>
+        <v>44958</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" t="s">
+        <v>102</v>
+      </c>
+      <c r="D119" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D128" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" t="s">
+        <v>107</v>
+      </c>
+      <c r="D133" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C136" t="s">
+        <v>100</v>
+      </c>
+      <c r="D136" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D138" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D139" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" t="s">
+        <v>109</v>
+      </c>
+      <c r="D141" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" t="s">
+        <v>110</v>
+      </c>
+      <c r="D142" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" t="s">
+        <v>111</v>
+      </c>
+      <c r="D144" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>44963</v>
       </c>
     </row>
   </sheetData>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="639" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F753565D-00E7-2442-B3EA-B04B35BD06EB}"/>
+  <xr:revisionPtr revIDLastSave="656" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E2907A-BCAE-DF42-9C41-C891CBA63B71}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23360" windowHeight="16000" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10800" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="115">
   <si>
     <t>日期</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>python fft</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>步行</t>
   </si>
 </sst>
 </file>
@@ -765,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2435,13 +2441,68 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
-        <v>44963</v>
-      </c>
+      <c r="A147" s="4"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>44963</v>
+        <v>44966</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" t="s">
+        <v>114</v>
+      </c>
+      <c r="D148" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>44966</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C149" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>44966</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>44966</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D151" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>44966</v>
       </c>
     </row>
   </sheetData>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="656" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E2907A-BCAE-DF42-9C41-C891CBA63B71}"/>
+  <xr:revisionPtr revIDLastSave="682" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AC68679-7D12-0749-9FA2-46CF2B98EF2C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10800" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="27040" windowHeight="10800" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="119">
   <si>
     <t>日期</t>
   </si>
@@ -397,6 +397,18 @@
   </si>
   <si>
     <t>步行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research </t>
+  </si>
+  <si>
+    <t>two channel calibration</t>
+  </si>
+  <si>
+    <t>做饭</t>
+  </si>
+  <si>
+    <t>直播</t>
   </si>
 </sst>
 </file>
@@ -771,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2412,7 +2424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>44963</v>
       </c>
@@ -2426,7 +2438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>44963</v>
       </c>
@@ -2440,10 +2452,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>44966</v>
       </c>
@@ -2457,7 +2469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>44966</v>
       </c>
@@ -2468,7 +2480,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>44966</v>
       </c>
@@ -2479,7 +2491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>44966</v>
       </c>
@@ -2490,19 +2502,79 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44970</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C153" t="s">
+        <v>116</v>
+      </c>
+      <c r="D153" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>44966</v>
+        <v>44970</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D154" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>44970</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" t="s">
+        <v>45</v>
+      </c>
+      <c r="D155" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>44970</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>44970</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D157" s="2">
+        <v>53</v>
+      </c>
+      <c r="E157" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>44970</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="682" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AC68679-7D12-0749-9FA2-46CF2B98EF2C}"/>
+  <xr:revisionPtr revIDLastSave="696" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44D98AED-1D85-A243-9374-04C5C851EB84}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="27040" windowHeight="10800" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="120">
   <si>
     <t>日期</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>直播</t>
+  </si>
+  <si>
+    <t>影评</t>
   </si>
 </sst>
 </file>
@@ -783,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2424,7 +2427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>44963</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>44963</v>
       </c>
@@ -2452,10 +2455,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>44966</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>44966</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>44966</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>44966</v>
       </c>
@@ -2502,10 +2505,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>44970</v>
       </c>
@@ -2516,10 +2519,10 @@
         <v>116</v>
       </c>
       <c r="D153" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>44970</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>44970</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>44970</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>44970</v>
       </c>
@@ -2565,16 +2568,49 @@
       <c r="D157" s="2">
         <v>53</v>
       </c>
-      <c r="E157" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>44970</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="D158" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>44970</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>44970</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>44970</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E161" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="696" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44D98AED-1D85-A243-9374-04C5C851EB84}"/>
+  <xr:revisionPtr revIDLastSave="716" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4990A0E-4DC9-F34B-9E4F-1991F2C7BAFD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="27040" windowHeight="10800" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10800" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="121">
   <si>
     <t>日期</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>影评</t>
+  </si>
+  <si>
+    <t>通勤</t>
   </si>
 </sst>
 </file>
@@ -786,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2613,6 +2616,69 @@
         <v>5</v>
       </c>
     </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>44971</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D163" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>44971</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>44971</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D165" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>44971</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/time records/record.xlsx
+++ b/time records/record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/yangch_ug_kth_se/Documents/PhD/study notes/daily writing/time records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="716" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4990A0E-4DC9-F34B-9E4F-1991F2C7BAFD}"/>
+  <xr:revisionPtr revIDLastSave="741" documentId="8_{EB022E86-9F53-3749-8E02-F1EB961DD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5EE6184-8163-9C4C-A065-517520A04B70}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="10800" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="27040" windowHeight="10800" xr2:uid="{75E0E992-E93C-194B-84F3-B52702DB8E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
   <si>
     <t>日期</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>通勤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two channel </t>
+  </si>
+  <si>
+    <t>chatgpt</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71202AD9-F6AE-7E4C-A4C7-3746B5A46B93}">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2653,30 +2655,98 @@
       <c r="A166" s="4">
         <v>44971</v>
       </c>
+      <c r="B166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D166" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>44971</v>
       </c>
+      <c r="B167" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C167" t="s">
+        <v>121</v>
+      </c>
+      <c r="D167" s="2">
+        <v>130</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>44971</v>
       </c>
+      <c r="B168" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C168" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>44971</v>
       </c>
+      <c r="B169" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D169" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
-        <v>44971</v>
-      </c>
+      <c r="A170" s="4"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>44971</v>
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>44972</v>
       </c>
     </row>
   </sheetData>
